--- a/simulation/one-taxi/output/100次训练结果比较/司机空车时间表.xlsx
+++ b/simulation/one-taxi/output/100次训练结果比较/司机空车时间表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7D8B0-D424-46AC-8FE8-671E88A0A56A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E94966-C486-4CCE-90D0-D850095D3FC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>DQN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7320,7 +7324,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7424,6 +7428,20 @@
         <v>126.21428571428528</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>587.39857142856943</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:D7" si="0">SUM(C2:C6)</f>
+        <v>615.9576190476165</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>629.86571428571199</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
@@ -7431,16 +7449,36 @@
       <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>(B6-C6)/C6</f>
+        <v>-0.11452485684392814</v>
+      </c>
+      <c r="C9">
+        <f>(C6-D6)/D6</f>
+        <v>6.1007357102421007E-3</v>
+      </c>
+      <c r="D9">
+        <f>(B6-D6)/D6</f>
+        <v>-0.10912280701754416</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="B10">
+        <f>(B7-C7)/C7</f>
+        <v>-4.636528023341055E-2</v>
+      </c>
+      <c r="C10">
+        <f>(C7-D7)/D7</f>
+        <v>-2.2081048265768382E-2</v>
+      </c>
+      <c r="D10">
+        <f>(B7-D7)/D7</f>
+        <v>-6.7422534508489118E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/simulation/one-taxi/output/100次训练结果比较/司机空车时间表.xlsx
+++ b/simulation/one-taxi/output/100次训练结果比较/司机空车时间表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06578420-033D-4986-B882-E69993942208}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B41360-08F1-4DEA-87E7-790E1B7B4C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="855" windowWidth="23625" windowHeight="13065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4587,6 +4588,68 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CDF of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Seeking time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6637,7 +6700,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seeking Time(mins)</a:t>
+                  <a:t>Seeking </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ime(mins)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
@@ -6717,6 +6788,7 @@
         <c:axId val="1822923935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6734,6 +6806,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6785,6 +6913,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.794797578146067"/>
+          <c:y val="0.38331892262972894"/>
+          <c:w val="0.16364116732801059"/>
+          <c:h val="0.22002646065877915"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13782,7 +13920,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>57978</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
@@ -15688,8 +15826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37014F1D-C288-4938-9022-17B7A0FB7693}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18627,7 +18765,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="I2:I103">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:I103">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
